--- a/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A/Synapse_WorkflowES/1.0/accreditamento-checklist_V8.2.1.xlsx
+++ b/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A/Synapse_WorkflowES/1.0/accreditamento-checklist_V8.2.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\502754\Documents\NetBeansProjects\accredRSA\it-fse-accreditamento\GATEWAY\A1#111FUJIFILM000\Fujifilm_Italia_S.p.A\Synapse_WorkflowES_RSA\1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C94D4BB-E27A-4B56-B621-0C98969D895C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BA936F-C46E-4D1D-9302-708BEEC0880F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="3060" windowWidth="23400" windowHeight="11775" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$35</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,9 +40,6 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="oXWj5iU3LtnvLpdhFqszSz/X91q3fG5U5zC5TJKtiGw="/>
     </ext>
   </extLst>
 </workbook>
@@ -80,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="196">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -839,6 +837,20 @@
   <si>
     <t>Il test non è applicabile in quanto i signature codes nell'applicativo sono codificati in una enumeration e non posso essere inseriti codici diversi da quelli prestabiliti.</t>
   </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>altro(specificare)</t>
+  </si>
+  <si>
+    <t>Il test non è applicabile perche l'applicativo valorizza sempre alcune entry non obbligatorie, tipo: ClinicalDocument/component/structuredBody/component/section[@ID=Prestazioni]/title</t>
+  </si>
 </sst>
 </file>
 
@@ -847,11 +859,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -984,7 +1003,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1338,144 +1357,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{565105C8-FFD6-432C-8B2E-BD1D172FCD26}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{BBABEF09-F05F-406D-8477-7CAA34DA8A86}"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2920,7 +2981,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A36:XFD36"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2964,12 +3025,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="43"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -2990,14 +3051,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="50" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="42"/>
+      <c r="D3" s="43"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3018,12 +3079,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="50" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3045,12 +3106,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="43"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3071,8 +3132,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3252,13 +3313,13 @@
       <c r="P10" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="Q10" s="51" t="s">
+      <c r="Q10" s="39" t="s">
         <v>49</v>
       </c>
       <c r="R10" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S10" s="51" t="s">
+      <c r="S10" s="39" t="s">
         <v>152</v>
       </c>
       <c r="T10" s="34"/>
@@ -3319,7 +3380,7 @@
       <c r="R11" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S11" s="51" t="s">
+      <c r="S11" s="39" t="s">
         <v>152</v>
       </c>
       <c r="T11" s="34"/>
@@ -3362,7 +3423,7 @@
       <c r="N12" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="51" t="s">
+      <c r="O12" s="39" t="s">
         <v>151</v>
       </c>
       <c r="P12" s="34" t="s">
@@ -3374,7 +3435,7 @@
       <c r="R12" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S12" s="51" t="s">
+      <c r="S12" s="39" t="s">
         <v>152</v>
       </c>
       <c r="T12" s="34"/>
@@ -3425,7 +3486,7 @@
       <c r="N13" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="51" t="s">
+      <c r="O13" s="39" t="s">
         <v>151</v>
       </c>
       <c r="P13" s="34" t="s">
@@ -3437,7 +3498,7 @@
       <c r="R13" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="51" t="s">
+      <c r="S13" s="39" t="s">
         <v>152</v>
       </c>
       <c r="T13" s="34"/>
@@ -3473,7 +3534,7 @@
       <c r="K14" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="L14" s="51" t="s">
+      <c r="L14" s="39" t="s">
         <v>159</v>
       </c>
       <c r="M14" s="34"/>
@@ -3516,7 +3577,7 @@
       <c r="K15" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="L15" s="51" t="s">
+      <c r="L15" s="39" t="s">
         <v>159</v>
       </c>
       <c r="M15" s="34"/>
@@ -3559,7 +3620,7 @@
       <c r="K16" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="L16" s="51" t="s">
+      <c r="L16" s="39" t="s">
         <v>159</v>
       </c>
       <c r="M16" s="34"/>
@@ -3602,7 +3663,7 @@
       <c r="K17" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="L17" s="51" t="s">
+      <c r="L17" s="39" t="s">
         <v>160</v>
       </c>
       <c r="M17" s="34"/>
@@ -3658,7 +3719,7 @@
       <c r="N18" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O18" s="51" t="s">
+      <c r="O18" s="39" t="s">
         <v>164</v>
       </c>
       <c r="P18" s="34" t="s">
@@ -3670,7 +3731,7 @@
       <c r="R18" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S18" s="51" t="s">
+      <c r="S18" s="39" t="s">
         <v>165</v>
       </c>
       <c r="T18" s="34"/>
@@ -3719,7 +3780,7 @@
       <c r="N19" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O19" s="51" t="s">
+      <c r="O19" s="39" t="s">
         <v>164</v>
       </c>
       <c r="P19" s="34" t="s">
@@ -3731,7 +3792,7 @@
       <c r="R19" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S19" s="51" t="s">
+      <c r="S19" s="39" t="s">
         <v>165</v>
       </c>
       <c r="T19" s="34"/>
@@ -3823,7 +3884,7 @@
       <c r="N21" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O21" s="51" t="s">
+      <c r="O21" s="39" t="s">
         <v>164</v>
       </c>
       <c r="P21" s="34" t="s">
@@ -3835,7 +3896,7 @@
       <c r="R21" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S21" s="51" t="s">
+      <c r="S21" s="39" t="s">
         <v>165</v>
       </c>
       <c r="T21" s="34"/>
@@ -3884,7 +3945,7 @@
       <c r="N22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O22" s="51" t="s">
+      <c r="O22" s="39" t="s">
         <v>164</v>
       </c>
       <c r="P22" s="34" t="s">
@@ -3896,7 +3957,7 @@
       <c r="R22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S22" s="51" t="s">
+      <c r="S22" s="39" t="s">
         <v>165</v>
       </c>
       <c r="T22" s="34"/>
@@ -3986,7 +4047,7 @@
       <c r="N24" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O24" s="51" t="s">
+      <c r="O24" s="39" t="s">
         <v>164</v>
       </c>
       <c r="P24" s="34" t="s">
@@ -3998,7 +4059,7 @@
       <c r="R24" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S24" s="51" t="s">
+      <c r="S24" s="39" t="s">
         <v>165</v>
       </c>
       <c r="T24" s="34"/>
@@ -4047,7 +4108,7 @@
       <c r="N25" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O25" s="51" t="s">
+      <c r="O25" s="39" t="s">
         <v>164</v>
       </c>
       <c r="P25" s="34" t="s">
@@ -4059,7 +4120,7 @@
       <c r="R25" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S25" s="51" t="s">
+      <c r="S25" s="39" t="s">
         <v>165</v>
       </c>
       <c r="T25" s="34"/>
@@ -4108,7 +4169,7 @@
       <c r="N26" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O26" s="51" t="s">
+      <c r="O26" s="39" t="s">
         <v>164</v>
       </c>
       <c r="P26" s="34" t="s">
@@ -4120,7 +4181,7 @@
       <c r="R26" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S26" s="51" t="s">
+      <c r="S26" s="39" t="s">
         <v>165</v>
       </c>
       <c r="T26" s="34"/>
@@ -4199,7 +4260,7 @@
       <c r="K28" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="L28" s="51" t="s">
+      <c r="L28" s="39" t="s">
         <v>187</v>
       </c>
       <c r="M28" s="34"/>
@@ -4242,7 +4303,7 @@
       <c r="K29" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="L29" s="51" t="s">
+      <c r="L29" s="39" t="s">
         <v>188</v>
       </c>
       <c r="M29" s="34"/>
@@ -4285,7 +4346,7 @@
       <c r="K30" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="L30" s="51" t="s">
+      <c r="L30" s="39" t="s">
         <v>189</v>
       </c>
       <c r="M30" s="34"/>
@@ -4328,7 +4389,7 @@
       <c r="K31" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="L31" s="51" t="s">
+      <c r="L31" s="39" t="s">
         <v>189</v>
       </c>
       <c r="M31" s="34"/>
@@ -4371,7 +4432,7 @@
       <c r="K32" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="L32" s="51" t="s">
+      <c r="L32" s="39" t="s">
         <v>189</v>
       </c>
       <c r="M32" s="34"/>
@@ -4414,7 +4475,7 @@
       <c r="K33" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="L33" s="51" t="s">
+      <c r="L33" s="39" t="s">
         <v>189</v>
       </c>
       <c r="M33" s="34"/>
@@ -4457,7 +4518,7 @@
       <c r="K34" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="L34" s="51" t="s">
+      <c r="L34" s="39" t="s">
         <v>190</v>
       </c>
       <c r="M34" s="34"/>
@@ -4474,7 +4535,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="154.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29">
         <v>169</v>
       </c>
@@ -4500,7 +4561,7 @@
       <c r="K35" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="L35" s="51" t="s">
+      <c r="L35" s="39" t="s">
         <v>191</v>
       </c>
       <c r="M35" s="34"/>
@@ -4515,6 +4576,49 @@
       <c r="V35" s="36"/>
       <c r="W35" s="37" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="52">
+        <v>374</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="55"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="K36" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="L36" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="58"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="60" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9059,7 +9163,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -11329,27 +11433,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -11607,10 +11690,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11633,20 +11748,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>